--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2020-09-09.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2020-09-09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="33">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -88,7 +88,7 @@
     <t>Speed boat</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>06.37.90.26.57</t>
@@ -1364,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3393,8 +3390,8 @@
   <sheetPr/>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3473,7 +3470,7 @@
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -3545,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3724,7 +3721,7 @@
     <row r="17" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -3973,7 +3970,7 @@
     <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -4083,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4105,7 +4102,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4229,7 +4226,7 @@
     <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -4358,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4478,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C56" s="8">
         <v>0</v>
@@ -4556,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4616,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4738,7 +4735,7 @@
     <row r="69" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
@@ -4989,7 +4986,7 @@
     <row r="82" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5">
         <v>0</v>
@@ -5118,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5241,7 +5238,7 @@
     <row r="95" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
@@ -5490,7 +5487,7 @@
     <row r="108" ht="42" customHeight="1" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C108" s="8">
         <v>0</v>
